--- a/Assignment 1.xlsx
+++ b/Assignment 1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="14115" windowHeight="8670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment generation" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>z = -1</t>
   </si>
@@ -179,6 +179,33 @@
   <si>
     <t>1</t>
   </si>
+  <si>
+    <t>Image after Translation</t>
+  </si>
+  <si>
+    <t>Image after viewing</t>
+  </si>
+  <si>
+    <t>Projection Matrix</t>
+  </si>
+  <si>
+    <t>Projection by Hand</t>
+  </si>
+  <si>
+    <t>Image after Projection</t>
+  </si>
+  <si>
+    <t>Super Matrix</t>
+  </si>
+  <si>
+    <t>7.989407</t>
+  </si>
+  <si>
+    <t>Mega Matrix</t>
+  </si>
+  <si>
+    <t>Image after Mega Matrix</t>
+  </si>
 </sst>
 </file>
 
@@ -205,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -473,13 +500,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,6 +722,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,7 +777,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,6 +785,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,28 +800,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -657,6 +845,2843 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Hand</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> Projection</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35949300087489067"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Assignment!$G$75:$G$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.36235310131168785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.5113792282883313E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.11657653845936029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.40947823926440535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3451092274585259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.9330284660314479E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.1911974774405283E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.39372285504551652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Assignment!$H$75:$H$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.6163552638137484E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.2225215053491238E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.14988608605722936</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.6366702727509876E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2986493991308812E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.0247946947409645E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.13095690602393439</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2903142406418215E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E4D-4C69-98C1-6C54465C15E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1148756991"/>
+        <c:axId val="1148751583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1148756991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148751583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1148751583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148756991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Projection Matrix</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Assignment!$K$105:$K$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.75651890021989798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15646826398338626</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24293233128235328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85527936325825316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72153269495108174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10288737347197416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19177841929556333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82355613750085566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Assignment!$L$105:$L$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.11565606396437388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13054737167682309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37481502955364127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14128008318834462</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.18311470418853781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5705166335482618E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32789696948451641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2588793035801036E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6629-4124-AEC2-87E8AEACE077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1177386447"/>
+        <c:axId val="1177384783"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1177386447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177384783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1177384783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1177386447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Mega Matrix</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Assignment!$Y$105:$Y$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.75651909916853399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15646830142868803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24293252051043138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85527919116735696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72153269495108174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1028873928413499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19177841929556333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82355596562562794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Assignment!$Z$105:$Z$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.11565606396437388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13054737167682309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37481502955364127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14128005476135672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.18311470418853781</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.570518570485836E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.32789696948451641</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2588775799614031E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C75-4203-9CF1-217B6C97144C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1936059487"/>
+        <c:axId val="1918712703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1936059487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1918712703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1918712703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1936059487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>299358</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>139765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>585108</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>74062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -948,7 +3973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -961,24 +3986,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1147,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1172,10 +4197,10 @@
     </row>
     <row r="2" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="5"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="8"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -1186,8 +4211,8 @@
     </row>
     <row r="3" spans="3:13" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="5"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="6"/>
       <c r="G3" s="11"/>
       <c r="H3" s="7"/>
@@ -1207,10 +4232,10 @@
     </row>
     <row r="5" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="5"/>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="8"/>
       <c r="H5" s="15"/>
       <c r="I5" s="12"/>
@@ -1219,8 +4244,8 @@
     </row>
     <row r="6" spans="3:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
       <c r="H6" s="15"/>
@@ -1240,10 +4265,10 @@
     </row>
     <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="17"/>
       <c r="G8" s="12"/>
       <c r="H8" s="15"/>
@@ -1253,8 +4278,8 @@
     </row>
     <row r="9" spans="3:13" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="5"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="17"/>
       <c r="G9" s="12"/>
       <c r="H9" s="15"/>
@@ -1274,28 +4299,28 @@
     </row>
     <row r="11" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="43"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="8"/>
       <c r="L11" s="15"/>
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="3:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="5"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="46"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="54"/>
       <c r="J12" s="16"/>
       <c r="K12" s="12"/>
       <c r="L12" s="15"/>
@@ -1315,10 +4340,10 @@
     </row>
     <row r="14" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="5"/>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="41"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="17"/>
       <c r="G14" s="12"/>
       <c r="H14" s="15"/>
@@ -1330,8 +4355,8 @@
     </row>
     <row r="15" spans="3:13" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="5"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="17"/>
       <c r="G15" s="12"/>
       <c r="H15" s="15"/>
@@ -1355,10 +4380,10 @@
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="5"/>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="18"/>
       <c r="G17" s="12"/>
       <c r="H17" s="15"/>
@@ -1370,8 +4395,8 @@
     </row>
     <row r="18" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="5"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="46"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="20"/>
       <c r="H18" s="15"/>
       <c r="I18" s="12"/>
@@ -1392,18 +4417,18 @@
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="5"/>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="44" t="s">
+      <c r="E20" s="56"/>
+      <c r="F20" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="42" t="s">
+      <c r="G20" s="61"/>
+      <c r="H20" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="43"/>
+      <c r="I20" s="59"/>
       <c r="J20" s="17"/>
       <c r="K20" s="12"/>
       <c r="L20" s="15"/>
@@ -1411,12 +4436,12 @@
     </row>
     <row r="21" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="5"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="46"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="17"/>
       <c r="K21" s="12"/>
       <c r="L21" s="15"/>
@@ -1434,33 +4459,33 @@
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="5"/>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="9"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
       <c r="J23" s="10"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="42" t="s">
+      <c r="L23" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="59"/>
     </row>
     <row r="24" spans="1:13" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="5"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="6"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="7"/>
       <c r="K24" s="23"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="46"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="54"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="13"/>
@@ -1473,10 +4498,10 @@
     <row r="26" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="24"/>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="12"/>
       <c r="J26" s="15"/>
       <c r="K26" s="12"/>
@@ -1487,8 +4512,8 @@
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="46"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="54"/>
       <c r="F27" s="12"/>
       <c r="J27" s="15"/>
       <c r="K27" s="12"/>
@@ -1506,15 +4531,15 @@
       <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="25"/>
-      <c r="D29" s="40" t="s">
+      <c r="D29" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="41"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="9"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
@@ -1525,11 +4550,11 @@
       <c r="M29" s="12"/>
     </row>
     <row r="30" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="46"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="20"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
@@ -1547,44 +4572,44 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="41"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="44" t="s">
+      <c r="E32" s="56"/>
+      <c r="F32" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="40" t="s">
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="41"/>
+      <c r="M32" s="56"/>
     </row>
     <row r="33" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="39"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="39"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="57"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
@@ -1596,23 +4621,23 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="46"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="12"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E38" s="26"/>
       <c r="F38" s="26"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -1666,724 +4691,1926 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K66"/>
+  <dimension ref="F2:AA113"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="Y105" sqref="Y105:Z112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="26" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="8" width="9.140625" style="26"/>
+    <col min="9" max="15" width="9.140625" style="26" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+    <row r="2" spans="10:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="68" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:11" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33">
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+    </row>
+    <row r="3" spans="10:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="33">
         <v>0</v>
       </c>
-      <c r="C4" s="27">
+      <c r="K3" s="27">
         <v>1</v>
       </c>
-      <c r="D4" s="27">
+      <c r="L3" s="27">
         <v>1</v>
       </c>
-      <c r="E4" s="28">
+      <c r="M3" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="34">
+    <row r="4" spans="10:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="34">
         <v>1</v>
       </c>
-      <c r="C5" s="29">
+      <c r="K4" s="29">
         <v>-1</v>
       </c>
-      <c r="D5" s="29">
+      <c r="L4" s="29">
         <v>1</v>
       </c>
-      <c r="E5" s="30">
+      <c r="M4" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="34">
+    <row r="5" spans="10:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="34">
         <v>2</v>
       </c>
-      <c r="C6" s="29">
+      <c r="K5" s="29">
         <v>-1</v>
       </c>
-      <c r="D6" s="29">
+      <c r="L5" s="29">
         <v>-1</v>
       </c>
-      <c r="E6" s="30">
+      <c r="M5" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="34">
+    <row r="6" spans="10:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="34">
         <v>3</v>
       </c>
-      <c r="C7" s="29">
+      <c r="K6" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
+      <c r="L6" s="29">
         <v>-1</v>
       </c>
-      <c r="E7" s="30">
+      <c r="M6" s="30">
         <v>1</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="Q6" s="39"/>
+    </row>
+    <row r="7" spans="10:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="34">
+        <v>4</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1</v>
+      </c>
+      <c r="L7" s="29">
+        <v>1</v>
+      </c>
+      <c r="M7" s="30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="10:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="34">
+        <v>5</v>
+      </c>
+      <c r="K8" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="29">
+        <v>1</v>
+      </c>
+      <c r="M8" s="30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="10:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="34">
+        <v>6</v>
+      </c>
+      <c r="K9" s="29">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="29">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="10:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="35">
+        <v>7</v>
+      </c>
+      <c r="K10" s="31">
+        <v>1</v>
+      </c>
+      <c r="L10" s="31">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="10:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="36"/>
+    </row>
+    <row r="12" spans="10:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="37"/>
+    </row>
+    <row r="13" spans="10:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="66"/>
+    </row>
+    <row r="14" spans="10:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J14" s="36">
+        <v>0.99867589999999995</v>
+      </c>
+      <c r="K14" s="42">
+        <v>-3.069208E-2</v>
+      </c>
+      <c r="L14" s="42">
+        <v>4.1284870000000001E-2</v>
+      </c>
+      <c r="M14" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="10:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="37">
+        <v>4.1284870000000001E-2</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.95696680000000001</v>
+      </c>
+      <c r="L15" s="26">
+        <v>-0.28724569999999999</v>
+      </c>
+      <c r="M15" s="30">
+        <v>0</v>
+      </c>
+      <c r="N15" s="43"/>
+      <c r="O15" s="44"/>
+    </row>
+    <row r="16" spans="10:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J16" s="37">
+        <v>-3.069208E-2</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.28856979999999999</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.95696680000000001</v>
+      </c>
+      <c r="M16" s="30">
+        <v>0</v>
+      </c>
+      <c r="O16" s="45"/>
+    </row>
+    <row r="17" spans="10:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="38">
+        <v>0</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0</v>
+      </c>
+      <c r="M17" s="32">
+        <v>1</v>
+      </c>
+      <c r="O17" s="45"/>
+    </row>
+    <row r="18" spans="10:20" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="45"/>
+      <c r="O18" s="45"/>
+    </row>
+    <row r="19" spans="10:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="46"/>
+      <c r="O19" s="45"/>
+    </row>
+    <row r="20" spans="10:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="66"/>
+      <c r="O20" s="45"/>
+    </row>
+    <row r="21" spans="10:20" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="33">
+        <v>0</v>
+      </c>
+      <c r="K21" s="27">
+        <v>1.009269</v>
+      </c>
+      <c r="L21" s="27">
+        <v>0.71100600000000003</v>
+      </c>
+      <c r="M21" s="28">
+        <v>1.214845</v>
+      </c>
+      <c r="O21" s="45"/>
+    </row>
+    <row r="22" spans="10:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J22" s="34">
+        <v>1</v>
+      </c>
+      <c r="K22" s="29">
+        <v>-0.98808309999999999</v>
+      </c>
+      <c r="L22" s="29">
+        <v>0.6284362</v>
+      </c>
+      <c r="M22" s="30">
+        <v>1.2762290000000001</v>
+      </c>
+      <c r="O22" s="45"/>
+    </row>
+    <row r="23" spans="10:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="34">
+        <v>2</v>
+      </c>
+      <c r="K23" s="29">
+        <v>-0.92669889999999999</v>
+      </c>
+      <c r="L23" s="29">
+        <v>-1.2854969999999999</v>
+      </c>
+      <c r="M23" s="30">
+        <v>0.69908910000000002</v>
+      </c>
+      <c r="O23" s="45"/>
+    </row>
+    <row r="24" spans="10:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="34">
+        <v>3</v>
+      </c>
+      <c r="K24" s="29">
+        <v>1.0706530000000001</v>
+      </c>
+      <c r="L24" s="29">
+        <v>-1.202928</v>
+      </c>
+      <c r="M24" s="30">
+        <v>0.63770490000000002</v>
+      </c>
+      <c r="O24" s="45"/>
+    </row>
+    <row r="25" spans="10:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="34">
+        <v>4</v>
+      </c>
+      <c r="K25" s="29">
+        <v>0.92669889999999999</v>
+      </c>
+      <c r="L25" s="29">
+        <v>1.2854969999999999</v>
+      </c>
+      <c r="M25" s="30">
+        <v>-0.69908910000000002</v>
+      </c>
+      <c r="O25" s="45"/>
+    </row>
+    <row r="26" spans="10:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J26" s="34">
+        <v>5</v>
+      </c>
+      <c r="K26" s="29">
+        <v>-1.0706530000000001</v>
+      </c>
+      <c r="L26" s="29">
+        <v>1.202928</v>
+      </c>
+      <c r="M26" s="30">
+        <v>-0.63770490000000002</v>
+      </c>
+      <c r="O26" s="45"/>
+    </row>
+    <row r="27" spans="10:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="34">
+        <v>6</v>
+      </c>
+      <c r="K27" s="29">
+        <v>-1.009269</v>
+      </c>
+      <c r="L27" s="29">
+        <v>-0.71100600000000003</v>
+      </c>
+      <c r="M27" s="30">
+        <v>-1.214845</v>
+      </c>
+      <c r="O27" s="45"/>
+    </row>
+    <row r="28" spans="10:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="35">
+        <v>7</v>
+      </c>
+      <c r="K28" s="31">
+        <v>0.98808309999999999</v>
+      </c>
+      <c r="L28" s="31">
+        <v>-0.6284362</v>
+      </c>
+      <c r="M28" s="32">
+        <v>-1.2762290000000001</v>
+      </c>
+      <c r="O28" s="45"/>
+    </row>
+    <row r="29" spans="10:20" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="47"/>
+      <c r="O29" s="45"/>
+    </row>
+    <row r="30" spans="10:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="46"/>
+      <c r="O30" s="45"/>
+    </row>
+    <row r="31" spans="10:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J31" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="66"/>
+      <c r="O31" s="45"/>
+      <c r="Q31" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="71"/>
+    </row>
+    <row r="32" spans="10:20" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="42">
+        <v>0</v>
+      </c>
+      <c r="L32" s="42">
+        <v>0</v>
+      </c>
+      <c r="M32" s="28">
+        <v>0</v>
+      </c>
+      <c r="O32" s="45"/>
+      <c r="Q32" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="R32" s="26">
+        <v>-0.24553659999999999</v>
+      </c>
+      <c r="S32" s="26">
+        <v>0.33027889999999999</v>
+      </c>
+      <c r="T32" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="37">
+        <v>0</v>
+      </c>
+      <c r="K33" s="26">
+        <v>3</v>
+      </c>
+      <c r="L33" s="26">
+        <v>0</v>
+      </c>
+      <c r="M33" s="30">
+        <v>0</v>
+      </c>
+      <c r="O33" s="46"/>
+      <c r="Q33" s="37">
+        <v>0.1238546</v>
+      </c>
+      <c r="R33" s="26">
+        <v>2.8708999999999998</v>
+      </c>
+      <c r="S33" s="26">
+        <v>-0.86173710000000003</v>
+      </c>
+      <c r="T33" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="37">
+        <v>0</v>
+      </c>
+      <c r="K34" s="26">
+        <v>0</v>
+      </c>
+      <c r="L34" s="26">
+        <v>1</v>
+      </c>
+      <c r="M34" s="29">
+        <v>0</v>
+      </c>
+      <c r="N34" s="42"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="29">
+        <v>-3.069208E-2</v>
+      </c>
+      <c r="R34" s="26">
+        <v>0.28856979999999999</v>
+      </c>
+      <c r="S34" s="26">
+        <v>0.95696680000000001</v>
+      </c>
+      <c r="T34" s="30">
+        <v>2</v>
+      </c>
+      <c r="U34" s="48"/>
+    </row>
+    <row r="35" spans="10:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="38">
+        <v>0</v>
+      </c>
+      <c r="K35" s="26">
+        <v>0</v>
+      </c>
+      <c r="L35" s="26">
+        <v>0</v>
+      </c>
+      <c r="M35" s="32">
+        <v>1</v>
+      </c>
+      <c r="O35" s="45"/>
+      <c r="Q35" s="38">
+        <v>0</v>
+      </c>
+      <c r="R35" s="26">
+        <v>0</v>
+      </c>
+      <c r="S35" s="26">
+        <v>0</v>
+      </c>
+      <c r="T35" s="32">
+        <v>1</v>
+      </c>
+      <c r="U35" s="45"/>
+    </row>
+    <row r="36" spans="10:21" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="45"/>
+    </row>
+    <row r="37" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="46"/>
+      <c r="O37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="U37" s="45"/>
+    </row>
+    <row r="38" spans="10:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J38" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="66"/>
+      <c r="O38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="U38" s="45"/>
+    </row>
+    <row r="39" spans="10:21" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J39" s="33">
+        <v>0</v>
+      </c>
+      <c r="K39" s="27">
+        <v>8.0741490000000002</v>
+      </c>
+      <c r="L39" s="27">
+        <v>2.1330179999999999</v>
+      </c>
+      <c r="M39" s="28">
+        <v>1.214845</v>
+      </c>
+      <c r="O39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="U39" s="45"/>
+    </row>
+    <row r="40" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="34">
+        <v>1</v>
+      </c>
+      <c r="K40" s="29">
+        <v>-7.9046649999999996</v>
+      </c>
+      <c r="L40" s="29">
+        <v>1.8853089999999999</v>
+      </c>
+      <c r="M40" s="30">
+        <v>1.2762290000000001</v>
+      </c>
+      <c r="O40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="U40" s="45"/>
+    </row>
+    <row r="41" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="34">
+        <v>2</v>
+      </c>
+      <c r="K41" s="29">
+        <v>-7.4135910000000003</v>
+      </c>
+      <c r="L41" s="29">
+        <v>-3.8564919999999998</v>
+      </c>
+      <c r="M41" s="30">
+        <v>0.69908910000000002</v>
+      </c>
+      <c r="O41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="U41" s="45"/>
+    </row>
+    <row r="42" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="34">
+        <v>3</v>
+      </c>
+      <c r="K42" s="29">
+        <v>8.5652229999999996</v>
+      </c>
+      <c r="L42" s="29">
+        <v>-3.6087829999999999</v>
+      </c>
+      <c r="M42" s="30">
+        <v>0.63770490000000002</v>
+      </c>
+      <c r="O42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="U42" s="45"/>
+    </row>
+    <row r="43" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="34">
+        <v>4</v>
+      </c>
+      <c r="K43" s="29">
+        <v>7.4135910000000003</v>
+      </c>
+      <c r="L43" s="29">
+        <v>3.8564919999999998</v>
+      </c>
+      <c r="M43" s="30">
+        <v>-0.69908910000000002</v>
+      </c>
+      <c r="O43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="U43" s="45"/>
+    </row>
+    <row r="44" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J44" s="34">
+        <v>5</v>
+      </c>
+      <c r="K44" s="29">
+        <v>-8.5652229999999996</v>
+      </c>
+      <c r="L44" s="29">
+        <v>3.6087829999999999</v>
+      </c>
+      <c r="M44" s="30">
+        <v>-0.63770490000000002</v>
+      </c>
+      <c r="O44" s="45"/>
+      <c r="R44" s="45"/>
+      <c r="U44" s="45"/>
+    </row>
+    <row r="45" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="34">
+        <v>6</v>
+      </c>
+      <c r="K45" s="29">
+        <v>-8.0741490000000002</v>
+      </c>
+      <c r="L45" s="29">
+        <v>-2.1330179999999999</v>
+      </c>
+      <c r="M45" s="30">
+        <v>-1.214845</v>
+      </c>
+      <c r="O45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="U45" s="45"/>
+    </row>
+    <row r="46" spans="10:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="35">
+        <v>7</v>
+      </c>
+      <c r="K46" s="31">
+        <v>7.9046649999999996</v>
+      </c>
+      <c r="L46" s="31">
+        <v>-1.8853089999999999</v>
+      </c>
+      <c r="M46" s="32">
+        <v>-1.2762290000000001</v>
+      </c>
+      <c r="O46" s="45"/>
+      <c r="R46" s="45"/>
+      <c r="U46" s="45"/>
+    </row>
+    <row r="47" spans="10:21" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K47" s="47"/>
+      <c r="O47" s="45"/>
+      <c r="R47" s="45"/>
+      <c r="U47" s="45"/>
+    </row>
+    <row r="48" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K48" s="46"/>
+      <c r="O48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="U48" s="45"/>
+    </row>
+    <row r="49" spans="10:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="66"/>
+      <c r="O49" s="45"/>
+      <c r="R49" s="45"/>
+      <c r="U49" s="45"/>
+    </row>
+    <row r="50" spans="10:21" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="26">
+      <c r="K50" s="42">
         <v>0</v>
       </c>
-      <c r="J7" s="26">
+      <c r="L50" s="42">
         <v>0</v>
       </c>
-      <c r="K7" s="26">
+      <c r="M50" s="28">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34">
+      <c r="O50" s="46"/>
+      <c r="R50" s="45"/>
+      <c r="U50" s="45"/>
+    </row>
+    <row r="51" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="37">
+        <v>0</v>
+      </c>
+      <c r="K51" s="26">
+        <v>1</v>
+      </c>
+      <c r="L51" s="26">
+        <v>0</v>
+      </c>
+      <c r="M51" s="30">
+        <v>1</v>
+      </c>
+      <c r="N51" s="43"/>
+      <c r="O51" s="42"/>
+      <c r="R51" s="45"/>
+      <c r="U51" s="45"/>
+    </row>
+    <row r="52" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="37">
+        <v>0</v>
+      </c>
+      <c r="K52" s="26">
+        <v>0</v>
+      </c>
+      <c r="L52" s="26">
+        <v>1</v>
+      </c>
+      <c r="M52" s="30">
+        <v>2</v>
+      </c>
+      <c r="R52" s="45"/>
+      <c r="U52" s="45"/>
+    </row>
+    <row r="53" spans="10:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="38">
+        <v>0</v>
+      </c>
+      <c r="K53" s="26">
+        <v>0</v>
+      </c>
+      <c r="L53" s="26">
+        <v>0</v>
+      </c>
+      <c r="M53" s="32">
+        <v>1</v>
+      </c>
+      <c r="R53" s="45"/>
+      <c r="U53" s="45"/>
+    </row>
+    <row r="54" spans="10:21" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="U54" s="45"/>
+    </row>
+    <row r="55" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="U55" s="45"/>
+    </row>
+    <row r="56" spans="10:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J56" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56" s="67"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="66"/>
+      <c r="Q56" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="R56" s="67"/>
+      <c r="S56" s="67"/>
+      <c r="T56" s="66"/>
+      <c r="U56" s="45"/>
+    </row>
+    <row r="57" spans="10:21" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="33">
+        <v>0</v>
+      </c>
+      <c r="K57" s="27">
+        <v>10.074149999999999</v>
+      </c>
+      <c r="L57" s="27">
+        <v>3.1330179999999999</v>
+      </c>
+      <c r="M57" s="28">
+        <v>3.214845</v>
+      </c>
+      <c r="Q57" s="33">
+        <v>0</v>
+      </c>
+      <c r="R57" s="27">
+        <v>10.074149999999999</v>
+      </c>
+      <c r="S57" s="27">
+        <v>3.1330179999999999</v>
+      </c>
+      <c r="T57" s="28">
+        <v>3.2148439999999998</v>
+      </c>
+      <c r="U57" s="45"/>
+    </row>
+    <row r="58" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="34">
+        <v>1</v>
+      </c>
+      <c r="K58" s="29">
+        <v>-5.9046649999999996</v>
+      </c>
+      <c r="L58" s="29">
+        <v>2.8853089999999999</v>
+      </c>
+      <c r="M58" s="30">
+        <v>3.2762289999999998</v>
+      </c>
+      <c r="Q58" s="34">
+        <v>1</v>
+      </c>
+      <c r="R58" s="29">
+        <v>-5.9046649999999996</v>
+      </c>
+      <c r="S58" s="29">
+        <v>2.8853089999999999</v>
+      </c>
+      <c r="T58" s="30">
+        <v>3.2762289999999998</v>
+      </c>
+      <c r="U58" s="45"/>
+    </row>
+    <row r="59" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J59" s="34">
+        <v>2</v>
+      </c>
+      <c r="K59" s="29">
+        <v>-5.4135910000000003</v>
+      </c>
+      <c r="L59" s="29">
+        <v>-2.8564919999999998</v>
+      </c>
+      <c r="M59" s="30">
+        <v>2.6990889999999998</v>
+      </c>
+      <c r="Q59" s="34">
+        <v>2</v>
+      </c>
+      <c r="R59" s="29">
+        <v>-5.4135910000000003</v>
+      </c>
+      <c r="S59" s="29">
+        <v>-2.8564919999999998</v>
+      </c>
+      <c r="T59" s="30">
+        <v>2.6990889999999998</v>
+      </c>
+      <c r="U59" s="45"/>
+    </row>
+    <row r="60" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="34">
+        <v>3</v>
+      </c>
+      <c r="K60" s="29">
+        <v>10.56522</v>
+      </c>
+      <c r="L60" s="29">
+        <v>-2.6087829999999999</v>
+      </c>
+      <c r="M60" s="30">
+        <v>2.637705</v>
+      </c>
+      <c r="O60" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q60" s="34">
+        <v>3</v>
+      </c>
+      <c r="R60" s="29">
+        <v>10.56522</v>
+      </c>
+      <c r="S60" s="29">
+        <v>-2.6087829999999999</v>
+      </c>
+      <c r="T60" s="30">
+        <v>2.637705</v>
+      </c>
+      <c r="U60" s="45"/>
+    </row>
+    <row r="61" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="34">
         <v>4</v>
       </c>
-      <c r="C8" s="29">
+      <c r="K61" s="29">
+        <v>9.4135910000000003</v>
+      </c>
+      <c r="L61" s="29">
+        <v>4.8564920000000003</v>
+      </c>
+      <c r="M61" s="30">
+        <v>1.3009109999999999</v>
+      </c>
+      <c r="Q61" s="34">
+        <v>4</v>
+      </c>
+      <c r="R61" s="29">
+        <v>9.4135910000000003</v>
+      </c>
+      <c r="S61" s="29">
+        <v>4.8564920000000003</v>
+      </c>
+      <c r="T61" s="30">
+        <v>1.3009109999999999</v>
+      </c>
+      <c r="U61" s="45"/>
+    </row>
+    <row r="62" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="34">
+        <v>5</v>
+      </c>
+      <c r="K62" s="29">
+        <v>-6.5652229999999996</v>
+      </c>
+      <c r="L62" s="29">
+        <v>4.6087829999999999</v>
+      </c>
+      <c r="M62" s="30">
+        <v>1.362295</v>
+      </c>
+      <c r="Q62" s="34">
+        <v>5</v>
+      </c>
+      <c r="R62" s="29">
+        <v>-6.5652229999999996</v>
+      </c>
+      <c r="S62" s="29">
+        <v>4.6087829999999999</v>
+      </c>
+      <c r="T62" s="30">
+        <v>1.362295</v>
+      </c>
+      <c r="U62" s="45"/>
+    </row>
+    <row r="63" spans="10:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="34">
+        <v>6</v>
+      </c>
+      <c r="K63" s="29">
+        <v>-6.0741490000000002</v>
+      </c>
+      <c r="L63" s="29">
+        <v>-1.1330180000000001</v>
+      </c>
+      <c r="M63" s="30">
+        <v>0.78515539999999995</v>
+      </c>
+      <c r="Q63" s="34">
+        <v>6</v>
+      </c>
+      <c r="R63" s="29">
+        <v>-6.0741490000000002</v>
+      </c>
+      <c r="S63" s="29">
+        <v>-1.1330180000000001</v>
+      </c>
+      <c r="T63" s="30">
+        <v>0.78515539999999995</v>
+      </c>
+      <c r="U63" s="45"/>
+    </row>
+    <row r="64" spans="10:21" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="35">
+        <v>7</v>
+      </c>
+      <c r="K64" s="31">
+        <v>9.9046649999999996</v>
+      </c>
+      <c r="L64" s="31">
+        <v>-0.8853086</v>
+      </c>
+      <c r="M64" s="32">
+        <v>0.72377119999999995</v>
+      </c>
+      <c r="Q64" s="35">
+        <v>7</v>
+      </c>
+      <c r="R64" s="31">
+        <v>9.9046649999999996</v>
+      </c>
+      <c r="S64" s="31">
+        <v>-0.88530869999999995</v>
+      </c>
+      <c r="T64" s="32">
+        <v>0.72377130000000001</v>
+      </c>
+      <c r="U64" s="45"/>
+    </row>
+    <row r="65" spans="6:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K65" s="47"/>
+      <c r="U65" s="45"/>
+    </row>
+    <row r="66" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K66" s="46"/>
+      <c r="U66" s="45"/>
+    </row>
+    <row r="67" spans="6:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
+      <c r="M67" s="66"/>
+      <c r="U67" s="45"/>
+      <c r="X67" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y67" s="65"/>
+      <c r="Z67" s="65"/>
+      <c r="AA67" s="66"/>
+    </row>
+    <row r="68" spans="6:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="36">
+        <v>-0.92864570000000002</v>
+      </c>
+      <c r="K68" s="42">
+        <v>0.32623180000000002</v>
+      </c>
+      <c r="L68" s="42">
+        <v>-0.1766064</v>
+      </c>
+      <c r="M68" s="28">
+        <v>-10</v>
+      </c>
+      <c r="U68" s="45"/>
+      <c r="X68" s="36">
+        <v>-14.834339999999999</v>
+      </c>
+      <c r="Y68" s="42">
+        <v>2.2404549999999999</v>
+      </c>
+      <c r="Z68" s="42">
+        <v>-1.522654</v>
+      </c>
+      <c r="AA68" s="28">
+        <v>-23.909310000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J69" s="37">
+        <v>0.31709850000000001</v>
+      </c>
+      <c r="K69" s="26">
+        <v>0.9451389</v>
+      </c>
+      <c r="L69" s="26">
+        <v>7.8491749999999999E-2</v>
+      </c>
+      <c r="M69" s="30">
+        <v>-4</v>
+      </c>
+      <c r="U69" s="45"/>
+      <c r="X69" s="37">
+        <v>6.3930300000000004</v>
+      </c>
+      <c r="Y69" s="26">
+        <v>6.41744</v>
+      </c>
+      <c r="Z69" s="26">
+        <v>-1.5320990000000001</v>
+      </c>
+      <c r="AA69" s="30">
+        <v>-5.4650080000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="37">
+        <v>0.1925241</v>
+      </c>
+      <c r="K70" s="26">
+        <v>1.6889390000000001E-2</v>
+      </c>
+      <c r="L70" s="26">
+        <v>-0.98114690000000004</v>
+      </c>
+      <c r="M70" s="30">
+        <v>-51</v>
+      </c>
+      <c r="N70" s="43"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="50"/>
+      <c r="X70" s="37">
+        <v>-1.5735030000000001</v>
+      </c>
+      <c r="Y70" s="26">
+        <v>0.2824778</v>
+      </c>
+      <c r="Z70" s="26">
+        <v>0.89167419999999997</v>
+      </c>
+      <c r="AA70" s="30">
+        <v>50.663580000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="6:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J71" s="38">
+        <v>0</v>
+      </c>
+      <c r="K71" s="26">
+        <v>0</v>
+      </c>
+      <c r="L71" s="26">
+        <v>0</v>
+      </c>
+      <c r="M71" s="32">
         <v>1</v>
       </c>
-      <c r="D8" s="29">
+      <c r="U71" s="45"/>
+      <c r="X71" s="38">
+        <v>-1.5703590000000001</v>
+      </c>
+      <c r="Y71" s="26">
+        <v>0.28191339999999998</v>
+      </c>
+      <c r="Z71" s="26">
+        <v>0.88989260000000003</v>
+      </c>
+      <c r="AA71" s="32">
+        <v>52.560360000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="6:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K72" s="45"/>
+      <c r="U72" s="45"/>
+      <c r="Y72" s="45"/>
+    </row>
+    <row r="73" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K73" s="46"/>
+      <c r="U73" s="45"/>
+      <c r="Y73" s="45"/>
+    </row>
+    <row r="74" spans="6:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="67"/>
+      <c r="H74" s="66"/>
+      <c r="J74" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="K74" s="67"/>
+      <c r="L74" s="67"/>
+      <c r="M74" s="66"/>
+      <c r="U74" s="45"/>
+      <c r="Y74" s="45"/>
+    </row>
+    <row r="75" spans="6:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="F75" s="33">
+        <v>0</v>
+      </c>
+      <c r="G75" s="36">
+        <f>K75/-M75</f>
+        <v>-0.36235310131168785</v>
+      </c>
+      <c r="H75" s="28">
+        <f>L75/-M75</f>
+        <v>4.6163552638137484E-2</v>
+      </c>
+      <c r="J75" s="33">
+        <v>0</v>
+      </c>
+      <c r="K75" s="36">
+        <v>-18.90099</v>
+      </c>
+      <c r="L75" s="27">
+        <v>2.4079739999999998</v>
+      </c>
+      <c r="M75" s="28">
+        <v>-52.161799999999999</v>
+      </c>
+      <c r="U75" s="45"/>
+      <c r="Y75" s="45"/>
+    </row>
+    <row r="76" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F76" s="34">
         <v>1</v>
       </c>
-      <c r="E8" s="30">
+      <c r="G76" s="37">
+        <f t="shared" ref="G76:G82" si="0">K76/-M76</f>
+        <v>-7.5113792282883313E-2</v>
+      </c>
+      <c r="H76" s="30">
+        <f t="shared" ref="H76:H82" si="1">L76/-M76</f>
+        <v>-5.2225215053491238E-2</v>
+      </c>
+      <c r="J76" s="34">
+        <v>1</v>
+      </c>
+      <c r="K76" s="37">
+        <v>-4.1539820000000001</v>
+      </c>
+      <c r="L76" s="29">
+        <v>-2.8881860000000001</v>
+      </c>
+      <c r="M76" s="30">
+        <v>-55.302520000000001</v>
+      </c>
+      <c r="U76" s="45"/>
+      <c r="Y76" s="45"/>
+    </row>
+    <row r="77" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F77" s="34">
+        <v>2</v>
+      </c>
+      <c r="G77" s="37">
+        <f t="shared" si="0"/>
+        <v>-0.11657653845936029</v>
+      </c>
+      <c r="H77" s="30">
+        <f t="shared" si="1"/>
+        <v>-0.14988608605722936</v>
+      </c>
+      <c r="J77" s="34">
+        <v>2</v>
+      </c>
+      <c r="K77" s="37">
+        <v>-6.3812470000000001</v>
+      </c>
+      <c r="L77" s="29">
+        <v>-8.2045680000000001</v>
+      </c>
+      <c r="M77" s="30">
+        <v>-54.738689999999998</v>
+      </c>
+      <c r="U77" s="45"/>
+      <c r="Y77" s="45"/>
+    </row>
+    <row r="78" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F78" s="34">
+        <v>3</v>
+      </c>
+      <c r="G78" s="37">
+        <f t="shared" si="0"/>
+        <v>-0.40947823926440535</v>
+      </c>
+      <c r="H78" s="30">
+        <f t="shared" si="1"/>
+        <v>-5.6366702727509876E-2</v>
+      </c>
+      <c r="J78" s="34">
+        <v>3</v>
+      </c>
+      <c r="K78" s="37">
+        <v>-21.128250000000001</v>
+      </c>
+      <c r="L78" s="29">
+        <v>-2.9084080000000001</v>
+      </c>
+      <c r="M78" s="30">
+        <v>-51.59798</v>
+      </c>
+      <c r="U78" s="45"/>
+      <c r="Y78" s="45"/>
+    </row>
+    <row r="79" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F79" s="34">
+        <v>4</v>
+      </c>
+      <c r="G79" s="37">
+        <f t="shared" si="0"/>
+        <v>-0.3451092274585259</v>
+      </c>
+      <c r="H79" s="30">
+        <f t="shared" si="1"/>
+        <v>7.2986493991308812E-2</v>
+      </c>
+      <c r="I79" s="41"/>
+      <c r="J79" s="34">
+        <v>4</v>
+      </c>
+      <c r="K79" s="37">
+        <v>-17.3873</v>
+      </c>
+      <c r="L79" s="29">
+        <v>3.6772070000000001</v>
+      </c>
+      <c r="M79" s="30">
+        <v>-50.382019999999997</v>
+      </c>
+      <c r="U79" s="45"/>
+      <c r="Y79" s="45"/>
+    </row>
+    <row r="80" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80" s="34">
+        <v>5</v>
+      </c>
+      <c r="G80" s="37">
+        <f t="shared" si="0"/>
+        <v>-4.9330284660314479E-2</v>
+      </c>
+      <c r="H80" s="30">
+        <f t="shared" si="1"/>
+        <v>-3.0247946947409645E-2</v>
+      </c>
+      <c r="J80" s="34">
+        <v>5</v>
+      </c>
+      <c r="K80" s="37">
+        <v>-2.6402920000000001</v>
+      </c>
+      <c r="L80" s="29">
+        <v>-1.6189530000000001</v>
+      </c>
+      <c r="M80" s="30">
+        <v>-53.522739999999999</v>
+      </c>
+      <c r="U80" s="45"/>
+      <c r="Y80" s="45"/>
+    </row>
+    <row r="81" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81" s="34">
+        <v>6</v>
+      </c>
+      <c r="G81" s="37">
+        <f t="shared" si="0"/>
+        <v>-9.1911974774405283E-2</v>
+      </c>
+      <c r="H81" s="30">
+        <f t="shared" si="1"/>
+        <v>-0.13095690602393439</v>
+      </c>
+      <c r="J81" s="34">
+        <v>6</v>
+      </c>
+      <c r="K81" s="37">
+        <v>-4.8675579999999998</v>
+      </c>
+      <c r="L81" s="29">
+        <v>-6.9353350000000002</v>
+      </c>
+      <c r="M81" s="30">
+        <v>-52.958910000000003</v>
+      </c>
+      <c r="U81" s="45"/>
+      <c r="Y81" s="45"/>
+    </row>
+    <row r="82" spans="6:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="35">
+        <v>7</v>
+      </c>
+      <c r="G82" s="38">
+        <f t="shared" si="0"/>
+        <v>-0.39372285504551652</v>
+      </c>
+      <c r="H82" s="32">
+        <f t="shared" si="1"/>
+        <v>-3.2903142406418215E-2</v>
+      </c>
+      <c r="J82" s="35">
+        <v>7</v>
+      </c>
+      <c r="K82" s="38">
+        <v>-19.614560000000001</v>
+      </c>
+      <c r="L82" s="31">
+        <v>-1.639175</v>
+      </c>
+      <c r="M82" s="32">
+        <v>-49.818190000000001</v>
+      </c>
+      <c r="U82" s="45"/>
+      <c r="Y82" s="45"/>
+    </row>
+    <row r="83" spans="6:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K83" s="47"/>
+      <c r="U83" s="45"/>
+      <c r="Y83" s="45"/>
+    </row>
+    <row r="84" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K84" s="46"/>
+      <c r="U84" s="45"/>
+      <c r="Y84" s="45"/>
+    </row>
+    <row r="85" spans="6:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="66"/>
+      <c r="U85" s="45"/>
+      <c r="Y85" s="45"/>
+    </row>
+    <row r="86" spans="6:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="36">
+        <v>2.011844</v>
+      </c>
+      <c r="K86" s="42">
+        <v>0</v>
+      </c>
+      <c r="L86" s="42">
+        <v>0</v>
+      </c>
+      <c r="M86" s="28">
+        <v>0</v>
+      </c>
+      <c r="U86" s="45"/>
+      <c r="Y86" s="45"/>
+    </row>
+    <row r="87" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="37">
+        <v>0</v>
+      </c>
+      <c r="K87" s="26">
+        <v>2.4142130000000002</v>
+      </c>
+      <c r="L87" s="26">
+        <v>0</v>
+      </c>
+      <c r="M87" s="30">
+        <v>0</v>
+      </c>
+      <c r="U87" s="46"/>
+      <c r="Y87" s="45"/>
+    </row>
+    <row r="88" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="37">
+        <v>0</v>
+      </c>
+      <c r="K88" s="26">
+        <v>0</v>
+      </c>
+      <c r="L88" s="26">
+        <v>-1.0020020000000001</v>
+      </c>
+      <c r="M88" s="30">
+        <v>-2.0020020000000001</v>
+      </c>
+      <c r="N88" s="43"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="42"/>
+      <c r="U88" s="42"/>
+      <c r="Y88" s="45"/>
+    </row>
+    <row r="89" spans="6:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="38">
+        <v>0</v>
+      </c>
+      <c r="K89" s="26">
+        <v>0</v>
+      </c>
+      <c r="L89" s="26">
         <v>-1</v>
       </c>
-      <c r="H8" s="26">
+      <c r="M89" s="32">
         <v>0</v>
       </c>
-      <c r="I8" s="26">
+      <c r="Y89" s="45"/>
+    </row>
+    <row r="90" spans="6:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K90" s="45"/>
+      <c r="Y90" s="45"/>
+    </row>
+    <row r="91" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K91" s="46"/>
+      <c r="Y91" s="46"/>
+    </row>
+    <row r="92" spans="6:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="K92" s="67"/>
+      <c r="L92" s="67"/>
+      <c r="M92" s="66"/>
+      <c r="X92" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y92" s="67"/>
+      <c r="Z92" s="67"/>
+      <c r="AA92" s="66"/>
+    </row>
+    <row r="93" spans="6:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="33">
+        <v>0</v>
+      </c>
+      <c r="K93" s="36">
+        <v>-38.025840000000002</v>
+      </c>
+      <c r="L93" s="27">
+        <v>5.8133629999999998</v>
+      </c>
+      <c r="M93" s="28">
+        <v>50.264229999999998</v>
+      </c>
+      <c r="X93" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="36">
+        <v>-38.025849999999998</v>
+      </c>
+      <c r="Z93" s="27">
+        <v>5.8133629999999998</v>
+      </c>
+      <c r="AA93" s="28">
+        <v>50.264229999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="34">
         <v>1</v>
       </c>
-      <c r="J8" s="26">
+      <c r="K94" s="37">
+        <v>-8.3571639999999991</v>
+      </c>
+      <c r="L94" s="29">
+        <v>-6.9726970000000001</v>
+      </c>
+      <c r="M94" s="30">
+        <v>53.411239999999999</v>
+      </c>
+      <c r="X94" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y94" s="37">
+        <v>-8.3571659999999994</v>
+      </c>
+      <c r="Z94" s="29">
+        <v>-6.9726970000000001</v>
+      </c>
+      <c r="AA94" s="30">
+        <v>53.411239999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="34">
+        <v>2</v>
+      </c>
+      <c r="K95" s="37">
+        <v>-12.83807</v>
+      </c>
+      <c r="L95" s="29">
+        <v>-19.807580000000002</v>
+      </c>
+      <c r="M95" s="30">
+        <v>52.84628</v>
+      </c>
+      <c r="X95" s="34">
+        <v>2</v>
+      </c>
+      <c r="Y95" s="37">
+        <v>-12.83808</v>
+      </c>
+      <c r="Z95" s="29">
+        <v>-19.807580000000002</v>
+      </c>
+      <c r="AA95" s="30">
+        <v>52.84628</v>
+      </c>
+    </row>
+    <row r="96" spans="6:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="34">
+        <v>3</v>
+      </c>
+      <c r="K96" s="37">
+        <v>-42.50676</v>
+      </c>
+      <c r="L96" s="29">
+        <v>-7.0215170000000002</v>
+      </c>
+      <c r="M96" s="30">
+        <v>49.699269999999999</v>
+      </c>
+      <c r="X96" s="34">
+        <v>3</v>
+      </c>
+      <c r="Y96" s="37">
+        <v>-42.50676</v>
+      </c>
+      <c r="Z96" s="29">
+        <v>-7.0215170000000002</v>
+      </c>
+      <c r="AA96" s="30">
+        <v>49.699280000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="34">
+        <v>4</v>
+      </c>
+      <c r="K97" s="37">
+        <v>-34.980539999999998</v>
+      </c>
+      <c r="L97" s="29">
+        <v>8.8775619999999993</v>
+      </c>
+      <c r="M97" s="30">
+        <v>48.480879999999999</v>
+      </c>
+      <c r="X97" s="34">
+        <v>4</v>
+      </c>
+      <c r="Y97" s="37">
+        <v>-34.980539999999998</v>
+      </c>
+      <c r="Z97" s="29">
+        <v>8.8775619999999993</v>
+      </c>
+      <c r="AA97" s="30">
+        <v>48.480879999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="34">
+        <v>5</v>
+      </c>
+      <c r="K98" s="37">
+        <v>-5.311858</v>
+      </c>
+      <c r="L98" s="29">
+        <v>-3.9084979999999998</v>
+      </c>
+      <c r="M98" s="30">
+        <v>51.627890000000001</v>
+      </c>
+      <c r="X98" s="34">
+        <v>5</v>
+      </c>
+      <c r="Y98" s="37">
+        <v>-5.3118590000000001</v>
+      </c>
+      <c r="Z98" s="29">
+        <v>-3.9084989999999999</v>
+      </c>
+      <c r="AA98" s="30">
+        <v>51.627890000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="34">
+        <v>6</v>
+      </c>
+      <c r="K99" s="37">
+        <v>-9.7927680000000006</v>
+      </c>
+      <c r="L99" s="29">
+        <v>-16.743379999999998</v>
+      </c>
+      <c r="M99" s="30">
+        <v>51.062930000000001</v>
+      </c>
+      <c r="X99" s="34">
+        <v>6</v>
+      </c>
+      <c r="Y99" s="37">
+        <v>-9.7927680000000006</v>
+      </c>
+      <c r="Z99" s="29">
+        <v>-16.743379999999998</v>
+      </c>
+      <c r="AA99" s="30">
+        <v>51.062930000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="10:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J100" s="35">
+        <v>7</v>
+      </c>
+      <c r="K100" s="38">
+        <v>-39.461449999999999</v>
+      </c>
+      <c r="L100" s="31">
+        <v>-3.9573179999999999</v>
+      </c>
+      <c r="M100" s="32">
+        <v>47.91592</v>
+      </c>
+      <c r="X100" s="35">
+        <v>7</v>
+      </c>
+      <c r="Y100" s="38">
+        <v>-39.461449999999999</v>
+      </c>
+      <c r="Z100" s="31">
+        <v>-3.9573179999999999</v>
+      </c>
+      <c r="AA100" s="32">
+        <v>47.915930000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="10:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="K101" s="47"/>
+      <c r="Y101" s="47"/>
+    </row>
+    <row r="102" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K102" s="45"/>
+      <c r="Y102" s="45"/>
+    </row>
+    <row r="103" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K103" s="46"/>
+      <c r="Y103" s="46"/>
+    </row>
+    <row r="104" spans="10:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J104" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="K104" s="67"/>
+      <c r="L104" s="66"/>
+      <c r="X104" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y104" s="67"/>
+      <c r="Z104" s="66"/>
+    </row>
+    <row r="105" spans="10:27" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="33">
         <v>0</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K105" s="36">
+        <f>K93/-M93</f>
+        <v>0.75651890021989798</v>
+      </c>
+      <c r="L105" s="28">
+        <f>L93/-M93</f>
+        <v>-0.11565606396437388</v>
+      </c>
+      <c r="X105" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="36">
+        <f>Y93/-AA93</f>
+        <v>0.75651909916853399</v>
+      </c>
+      <c r="Z105" s="28">
+        <f>Z93/-AA93</f>
+        <v>-0.11565606396437388</v>
+      </c>
+    </row>
+    <row r="106" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="34">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34">
+      <c r="K106" s="37">
+        <f t="shared" ref="K106:K112" si="2">K94/-M94</f>
+        <v>0.15646826398338626</v>
+      </c>
+      <c r="L106" s="30">
+        <f t="shared" ref="L106:L112" si="3">L94/-M94</f>
+        <v>0.13054737167682309</v>
+      </c>
+      <c r="X106" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y106" s="37">
+        <f t="shared" ref="Y106:Y112" si="4">Y94/-AA94</f>
+        <v>0.15646830142868803</v>
+      </c>
+      <c r="Z106" s="30">
+        <f t="shared" ref="Z106:Z112" si="5">Z94/-AA94</f>
+        <v>0.13054737167682309</v>
+      </c>
+    </row>
+    <row r="107" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="34">
+        <v>2</v>
+      </c>
+      <c r="K107" s="37">
+        <f t="shared" si="2"/>
+        <v>0.24293233128235328</v>
+      </c>
+      <c r="L107" s="30">
+        <f t="shared" si="3"/>
+        <v>0.37481502955364127</v>
+      </c>
+      <c r="X107" s="34">
+        <v>2</v>
+      </c>
+      <c r="Y107" s="37">
+        <f t="shared" si="4"/>
+        <v>0.24293252051043138</v>
+      </c>
+      <c r="Z107" s="30">
+        <f t="shared" si="5"/>
+        <v>0.37481502955364127</v>
+      </c>
+    </row>
+    <row r="108" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J108" s="34">
+        <v>3</v>
+      </c>
+      <c r="K108" s="37">
+        <f t="shared" si="2"/>
+        <v>0.85527936325825316</v>
+      </c>
+      <c r="L108" s="30">
+        <f t="shared" si="3"/>
+        <v>0.14128008318834462</v>
+      </c>
+      <c r="X108" s="34">
+        <v>3</v>
+      </c>
+      <c r="Y108" s="37">
+        <f t="shared" si="4"/>
+        <v>0.85527919116735696</v>
+      </c>
+      <c r="Z108" s="30">
+        <f t="shared" si="5"/>
+        <v>0.14128005476135672</v>
+      </c>
+    </row>
+    <row r="109" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="34">
+        <v>4</v>
+      </c>
+      <c r="K109" s="37">
+        <f t="shared" si="2"/>
+        <v>0.72153269495108174</v>
+      </c>
+      <c r="L109" s="30">
+        <f t="shared" si="3"/>
+        <v>-0.18311470418853781</v>
+      </c>
+      <c r="X109" s="34">
+        <v>4</v>
+      </c>
+      <c r="Y109" s="37">
+        <f t="shared" si="4"/>
+        <v>0.72153269495108174</v>
+      </c>
+      <c r="Z109" s="30">
+        <f t="shared" si="5"/>
+        <v>-0.18311470418853781</v>
+      </c>
+    </row>
+    <row r="110" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J110" s="34">
         <v>5</v>
       </c>
-      <c r="C9" s="29">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="29">
-        <v>1</v>
-      </c>
-      <c r="E9" s="30">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="26">
-        <v>0</v>
-      </c>
-      <c r="I9" s="26">
-        <v>0</v>
-      </c>
-      <c r="J9" s="26">
-        <v>1</v>
-      </c>
-      <c r="K9" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34">
+      <c r="K110" s="37">
+        <f t="shared" si="2"/>
+        <v>0.10288737347197416</v>
+      </c>
+      <c r="L110" s="30">
+        <f t="shared" si="3"/>
+        <v>7.5705166335482618E-2</v>
+      </c>
+      <c r="X110" s="34">
+        <v>5</v>
+      </c>
+      <c r="Y110" s="37">
+        <f t="shared" si="4"/>
+        <v>0.1028873928413499</v>
+      </c>
+      <c r="Z110" s="30">
+        <f t="shared" si="5"/>
+        <v>7.570518570485836E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="10:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J111" s="34">
         <v>6</v>
       </c>
-      <c r="C10" s="29">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="30">
-        <v>-1</v>
-      </c>
-      <c r="H10" s="26">
-        <v>0</v>
-      </c>
-      <c r="I10" s="26">
-        <v>0</v>
-      </c>
-      <c r="J10" s="26">
-        <v>0</v>
-      </c>
-      <c r="K10" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35">
+      <c r="K111" s="37">
+        <f t="shared" si="2"/>
+        <v>0.19177841929556333</v>
+      </c>
+      <c r="L111" s="30">
+        <f t="shared" si="3"/>
+        <v>0.32789696948451641</v>
+      </c>
+      <c r="X111" s="34">
+        <v>6</v>
+      </c>
+      <c r="Y111" s="37">
+        <f t="shared" si="4"/>
+        <v>0.19177841929556333</v>
+      </c>
+      <c r="Z111" s="30">
+        <f t="shared" si="5"/>
+        <v>0.32789696948451641</v>
+      </c>
+    </row>
+    <row r="112" spans="10:27" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J112" s="35">
         <v>7</v>
       </c>
-      <c r="C11" s="31">
-        <v>1</v>
-      </c>
-      <c r="D11" s="31">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="49">
-        <v>0.99867589999999995</v>
-      </c>
-      <c r="C15" s="26">
-        <v>-3.069208E-2</v>
-      </c>
-      <c r="D15" s="26">
-        <v>4.1284870000000001E-2</v>
-      </c>
-      <c r="E15" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="50">
-        <v>4.1284870000000001E-2</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0.95696680000000001</v>
-      </c>
-      <c r="D16" s="26">
-        <v>-0.28724569999999999</v>
-      </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="50">
-        <v>-3.069208E-2</v>
-      </c>
-      <c r="C17" s="26">
-        <v>0.28856979999999999</v>
-      </c>
-      <c r="D17" s="26">
-        <v>0.95696680000000001</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="51">
-        <v>0</v>
-      </c>
-      <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="26">
-        <v>0</v>
-      </c>
-      <c r="E18" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="33">
-        <v>0</v>
-      </c>
-      <c r="C22" s="27">
-        <v>1.009269</v>
-      </c>
-      <c r="D22" s="27">
-        <v>0.71100600000000003</v>
-      </c>
-      <c r="E22" s="28">
-        <v>1.214845</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="34">
-        <v>1</v>
-      </c>
-      <c r="C23" s="29">
-        <v>-0.98808309999999999</v>
-      </c>
-      <c r="D23" s="29">
-        <v>0.6284362</v>
-      </c>
-      <c r="E23" s="30">
-        <v>1.2762290000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="34">
-        <v>2</v>
-      </c>
-      <c r="C24" s="29">
-        <v>-0.92669889999999999</v>
-      </c>
-      <c r="D24" s="29">
-        <v>-1.2854969999999999</v>
-      </c>
-      <c r="E24" s="30">
-        <v>0.69908910000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="34">
-        <v>3</v>
-      </c>
-      <c r="C25" s="29">
-        <v>1.0706530000000001</v>
-      </c>
-      <c r="D25" s="29">
-        <v>-1.202928</v>
-      </c>
-      <c r="E25" s="30">
-        <v>0.63770490000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="34">
-        <v>4</v>
-      </c>
-      <c r="C26" s="29">
-        <v>0.92669889999999999</v>
-      </c>
-      <c r="D26" s="29">
-        <v>1.2854969999999999</v>
-      </c>
-      <c r="E26" s="30">
-        <v>-0.69908910000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="34">
-        <v>5</v>
-      </c>
-      <c r="C27" s="29">
-        <v>-1.0706530000000001</v>
-      </c>
-      <c r="D27" s="29">
-        <v>1.202928</v>
-      </c>
-      <c r="E27" s="30">
-        <v>-0.63770490000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="34">
-        <v>6</v>
-      </c>
-      <c r="C28" s="29">
-        <v>-1.009269</v>
-      </c>
-      <c r="D28" s="29">
-        <v>-0.71100600000000003</v>
-      </c>
-      <c r="E28" s="30">
-        <v>-1.214845</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="35">
+      <c r="K112" s="38">
+        <f t="shared" si="2"/>
+        <v>0.82355613750085566</v>
+      </c>
+      <c r="L112" s="32">
+        <f t="shared" si="3"/>
+        <v>8.2588793035801036E-2</v>
+      </c>
+      <c r="X112" s="35">
         <v>7</v>
       </c>
-      <c r="C29" s="31">
-        <v>0.98808309999999999</v>
-      </c>
-      <c r="D29" s="31">
-        <v>-0.6284362</v>
-      </c>
-      <c r="E29" s="32">
-        <v>-1.2762290000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="26">
-        <v>0</v>
-      </c>
-      <c r="D33" s="26">
-        <v>0</v>
-      </c>
-      <c r="E33" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="26">
-        <v>0</v>
-      </c>
-      <c r="C34" s="26">
-        <v>3</v>
-      </c>
-      <c r="D34" s="26">
-        <v>0</v>
-      </c>
-      <c r="E34" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="26">
-        <v>0</v>
-      </c>
-      <c r="C35" s="26">
-        <v>0</v>
-      </c>
-      <c r="D35" s="26">
-        <v>1</v>
-      </c>
-      <c r="E35" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="26">
-        <v>0</v>
-      </c>
-      <c r="C36" s="26">
-        <v>0</v>
-      </c>
-      <c r="D36" s="26">
-        <v>0</v>
-      </c>
-      <c r="E36" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="33">
-        <v>0</v>
-      </c>
-      <c r="C40" s="27">
-        <v>8.0741490000000002</v>
-      </c>
-      <c r="D40" s="27">
-        <v>2.1330179999999999</v>
-      </c>
-      <c r="E40" s="28">
-        <v>1.214845</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="34">
-        <v>1</v>
-      </c>
-      <c r="C41" s="29">
-        <v>-7.9046649999999996</v>
-      </c>
-      <c r="D41" s="29">
-        <v>1.8853089999999999</v>
-      </c>
-      <c r="E41" s="30">
-        <v>1.2762290000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="34">
-        <v>2</v>
-      </c>
-      <c r="C42" s="29">
-        <v>-7.4135910000000003</v>
-      </c>
-      <c r="D42" s="29">
-        <v>-3.8564919999999998</v>
-      </c>
-      <c r="E42" s="30">
-        <v>0.69908910000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="34">
-        <v>3</v>
-      </c>
-      <c r="C43" s="29">
-        <v>8.5652229999999996</v>
-      </c>
-      <c r="D43" s="29">
-        <v>-3.6087829999999999</v>
-      </c>
-      <c r="E43" s="30">
-        <v>0.63770490000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="34">
-        <v>4</v>
-      </c>
-      <c r="C44" s="29">
-        <v>7.4135910000000003</v>
-      </c>
-      <c r="D44" s="29">
-        <v>3.8564919999999998</v>
-      </c>
-      <c r="E44" s="30">
-        <v>-0.69908910000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="34">
-        <v>5</v>
-      </c>
-      <c r="C45" s="29">
-        <v>-8.5652229999999996</v>
-      </c>
-      <c r="D45" s="29">
-        <v>3.6087829999999999</v>
-      </c>
-      <c r="E45" s="30">
-        <v>-0.63770490000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="34">
-        <v>6</v>
-      </c>
-      <c r="C46" s="29">
-        <v>-8.0741490000000002</v>
-      </c>
-      <c r="D46" s="29">
-        <v>-2.1330179999999999</v>
-      </c>
-      <c r="E46" s="30">
-        <v>-1.214845</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="35">
-        <v>7</v>
-      </c>
-      <c r="C47" s="31">
-        <v>7.9046649999999996</v>
-      </c>
-      <c r="D47" s="31">
-        <v>-1.8853089999999999</v>
-      </c>
-      <c r="E47" s="32">
-        <v>-1.2762290000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="26">
-        <v>0</v>
-      </c>
-      <c r="D51" s="26">
-        <v>0</v>
-      </c>
-      <c r="E51" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="50">
-        <v>0</v>
-      </c>
-      <c r="C52" s="26">
-        <v>1</v>
-      </c>
-      <c r="D52" s="26">
-        <v>0</v>
-      </c>
-      <c r="E52" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="50">
-        <v>0</v>
-      </c>
-      <c r="C53" s="26">
-        <v>0</v>
-      </c>
-      <c r="D53" s="26">
-        <v>1</v>
-      </c>
-      <c r="E53" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="51">
-        <v>0</v>
-      </c>
-      <c r="C54" s="26">
-        <v>0</v>
-      </c>
-      <c r="D54" s="26">
-        <v>0</v>
-      </c>
-      <c r="E54" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:5" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="33">
-        <v>0</v>
-      </c>
-      <c r="C58" s="27">
-        <v>10.074149999999999</v>
-      </c>
-      <c r="D58" s="27">
-        <v>3.1330179999999999</v>
-      </c>
-      <c r="E58" s="28">
-        <v>3.214845</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="34">
-        <v>1</v>
-      </c>
-      <c r="C59" s="29">
-        <v>-5.9046649999999996</v>
-      </c>
-      <c r="D59" s="29">
-        <v>2.8853089999999999</v>
-      </c>
-      <c r="E59" s="30">
-        <v>3.2762289999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="34">
-        <v>2</v>
-      </c>
-      <c r="C60" s="29">
-        <v>-5.4135910000000003</v>
-      </c>
-      <c r="D60" s="29">
-        <v>-2.8564919999999998</v>
-      </c>
-      <c r="E60" s="30">
-        <v>2.6990889999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="34">
-        <v>3</v>
-      </c>
-      <c r="C61" s="29">
-        <v>10.56522</v>
-      </c>
-      <c r="D61" s="29">
-        <v>-2.6087829999999999</v>
-      </c>
-      <c r="E61" s="30">
-        <v>2.637705</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="34">
-        <v>4</v>
-      </c>
-      <c r="C62" s="29">
-        <v>9.4135910000000003</v>
-      </c>
-      <c r="D62" s="29">
-        <v>4.8564920000000003</v>
-      </c>
-      <c r="E62" s="30">
-        <v>1.3009109999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="34">
-        <v>5</v>
-      </c>
-      <c r="C63" s="29">
-        <v>-6.5652229999999996</v>
-      </c>
-      <c r="D63" s="29">
-        <v>4.6087829999999999</v>
-      </c>
-      <c r="E63" s="30">
-        <v>1.362295</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="34">
-        <v>6</v>
-      </c>
-      <c r="C64" s="29">
-        <v>-6.0741490000000002</v>
-      </c>
-      <c r="D64" s="29">
-        <v>-1.1330180000000001</v>
-      </c>
-      <c r="E64" s="30">
-        <v>0.78515539999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="35">
-        <v>7</v>
-      </c>
-      <c r="C65" s="31">
-        <v>9.9046649999999996</v>
-      </c>
-      <c r="D65" s="31">
-        <v>-0.8853086</v>
-      </c>
-      <c r="E65" s="32">
-        <v>0.72377119999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="Y112" s="38">
+        <f t="shared" si="4"/>
+        <v>0.82355596562562794</v>
+      </c>
+      <c r="Z112" s="32">
+        <f t="shared" si="5"/>
+        <v>8.2588775799614031E-2</v>
+      </c>
+    </row>
+    <row r="113" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="J56:M56"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="X67:AA67"/>
+    <mergeCell ref="X92:AA92"/>
+    <mergeCell ref="X104:Z104"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="J104:L104"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="Q56:T56"/>
+    <mergeCell ref="J74:M74"/>
+    <mergeCell ref="J85:M85"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J49:M49"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
